--- a/data/trans_camb/P1427-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1427-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.624173380416975</v>
+        <v>-2.405287966141541</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6851072599308871</v>
+        <v>-0.9171038333755867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02633952274515856</v>
+        <v>0.06012740550013414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5327497214093736</v>
+        <v>0.512448323773899</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8354742624056909</v>
+        <v>-0.7515823283082678</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1502348740454663</v>
+        <v>0.1197788768664717</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6996059850455293</v>
+        <v>0.8709240752368791</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.652357860079869</v>
+        <v>2.6959485136112</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.688368819062384</v>
+        <v>3.57539682310088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.832743023491454</v>
+        <v>2.834709005149384</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.443990878382566</v>
+        <v>1.547145732105119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.311844910960491</v>
+        <v>2.245619832863631</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.3641906440096431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.447251013191015</v>
+        <v>1.447251013191014</v>
       </c>
     </row>
     <row r="8">
@@ -713,18 +713,18 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.890952646030101</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4186179533309145</v>
+        <v>-0.4346042830118265</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-0.6363286803011039</v>
+        <v>-0.5924424061689643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02188195191667562</v>
+        <v>-0.02366778613801354</v>
       </c>
     </row>
     <row r="9">
@@ -735,18 +735,18 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.531584761990012</v>
+        <v>2.685855306222156</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.171534565003469</v>
+        <v>4.692235874865478</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>3.588765988315309</v>
+        <v>3.353208990826318</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.34442521095227</v>
+        <v>5.49209294827873</v>
       </c>
     </row>
     <row r="10">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.882220129015066</v>
+        <v>-2.943195625335421</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.845220663208055</v>
+        <v>-1.585265463325301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.47137548010901</v>
+        <v>-2.559510571099072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.387563702555152</v>
+        <v>-1.008086936656563</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.917909849977337</v>
+        <v>-1.936967133746439</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5621948388804794</v>
+        <v>-0.5217282351579051</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6491033372357304</v>
+        <v>0.7031036632636317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.090591098961268</v>
+        <v>2.258545895876887</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.223431618284477</v>
+        <v>1.070475453078522</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.838664609508427</v>
+        <v>3.067539085016661</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6555278322907051</v>
+        <v>0.5928374281230386</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.09383573019089</v>
+        <v>1.994884973746802</v>
       </c>
     </row>
     <row r="13">
@@ -848,7 +848,7 @@
         <v>-0.2167761288350529</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.154735239050595</v>
+        <v>1.154735239050596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3884008631875593</v>
@@ -868,17 +868,17 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6479535441459505</v>
+        <v>-0.5908527153352779</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.5487994398780773</v>
+        <v>-0.5121723190010968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8392765484032513</v>
+        <v>-0.8395851291703225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2806195184028609</v>
+        <v>-0.2812891080471515</v>
       </c>
     </row>
     <row r="15">
@@ -889,18 +889,18 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.827920494469905</v>
+        <v>1.943297122244116</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.931950743197163</v>
+        <v>4.529868212040949</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>1.453984260835666</v>
+        <v>1.06233087361329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.48231663647443</v>
+        <v>3.496306562213085</v>
       </c>
     </row>
     <row r="16">
@@ -918,7 +918,7 @@
         <v>-0.30152565085859</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2188367587154172</v>
+        <v>0.2188367587154176</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.552855153085945</v>
@@ -941,22 +941,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.967774284140069</v>
+        <v>-2.048873822239502</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.480776598936052</v>
+        <v>-1.447646808285003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.832637545057355</v>
+        <v>-0.9160093636354887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.733824014824978</v>
+        <v>1.651301788331911</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.243897519750485</v>
+        <v>-1.212445526622234</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.02389508558364846</v>
+        <v>-0.02242759573112075</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.34807603086635</v>
+        <v>1.367378969248393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.829528886963341</v>
+        <v>1.973769452350186</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.93324874648886</v>
+        <v>5.18695736877014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.560342753517594</v>
+        <v>7.189542743991306</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.789863641897637</v>
+        <v>1.730097874687846</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.915322592460639</v>
+        <v>2.872283394673426</v>
       </c>
     </row>
     <row r="19">
@@ -996,7 +996,7 @@
         <v>-0.1248996566429145</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.09064779711634696</v>
+        <v>0.0906477971163471</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>1.306159509915078</v>
@@ -1019,20 +1019,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6109485977963204</v>
+        <v>-0.6331731250608842</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4678414741424695</v>
+        <v>-0.4471239465748264</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>0.3990906224640622</v>
+        <v>0.2820336967197176</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4568699703280682</v>
+        <v>-0.4665155181995144</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08049240205763136</v>
+        <v>-0.03251758232958374</v>
       </c>
     </row>
     <row r="21">
@@ -1043,20 +1043,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9363735922212671</v>
+        <v>0.9185109342489886</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.150328784586366</v>
+        <v>1.340521514893927</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>17.61925721322053</v>
+        <v>22.02943471118208</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.244196622346256</v>
+        <v>1.278087398217447</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.030487096821165</v>
+        <v>2.186541151783275</v>
       </c>
     </row>
     <row r="22">
@@ -1074,7 +1074,7 @@
         <v>-2.180057367392257</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.018258103786698</v>
+        <v>1.018258103786697</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.5308170085667363</v>
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.393499339638721</v>
+        <v>-3.341796815857257</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4173490755335134</v>
+        <v>-0.421206000327399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8648397905597615</v>
+        <v>-0.8787036664057174</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2735068404377562</v>
+        <v>-0.1807325676971125</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.990906249436779</v>
+        <v>-1.999875501780267</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1993719828046344</v>
+        <v>0.07571444573521958</v>
       </c>
     </row>
     <row r="24">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.161084017768094</v>
+        <v>-1.138180556004933</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.379714243541972</v>
+        <v>2.588975181621653</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.909073022389234</v>
+        <v>2.092425255710845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.400667691364659</v>
+        <v>2.484235145962287</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1560636853363096</v>
+        <v>-0.1604617915554431</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.064062777619633</v>
+        <v>2.077855134330711</v>
       </c>
     </row>
     <row r="25">
@@ -1152,7 +1152,7 @@
         <v>-0.7683266094820101</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3588689032508591</v>
+        <v>0.3588689032508589</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.3298756789644799</v>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.9173231781599717</v>
+        <v>-0.9071605478345222</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1308563452635116</v>
+        <v>-0.1171361873644042</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4284873529185961</v>
+        <v>-0.3911163516205809</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1205691128934606</v>
+        <v>-0.1078987475813378</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6791721044538994</v>
+        <v>-0.6830987499287373</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06290741738143943</v>
+        <v>0.01265478727583276</v>
       </c>
     </row>
     <row r="27">
@@ -1201,22 +1201,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.5017840535971784</v>
+        <v>-0.4914570738659222</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.176068820475576</v>
+        <v>1.275846363008781</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.272087745514911</v>
+        <v>2.615312951489872</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.60088695538839</v>
+        <v>2.723983053469542</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06783151319967785</v>
+        <v>-0.07775489586339879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.172975937814605</v>
+        <v>1.141571054038661</v>
       </c>
     </row>
     <row r="28">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.208267039058006</v>
+        <v>-1.423624535251764</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.074094359203944</v>
+        <v>1.318543787343038</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.320675504734603</v>
+        <v>-2.33936844446449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.882826923751447</v>
+        <v>1.790871937240429</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.628697901943582</v>
+        <v>-1.490859959705251</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.103891870387088</v>
+        <v>2.211867722502696</v>
       </c>
     </row>
     <row r="30">
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.648637427091031</v>
+        <v>1.462069326406281</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.72950654109331</v>
+        <v>4.991731585548902</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.441589865007531</v>
+        <v>1.398110322561507</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.60744756070397</v>
+        <v>5.445589048798841</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8635988176921133</v>
+        <v>0.9826066896523022</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.813814458781433</v>
+        <v>4.909590495788551</v>
       </c>
     </row>
     <row r="31">
@@ -1335,22 +1335,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.562284492763907</v>
+        <v>-0.6059305491678095</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2890294767241383</v>
+        <v>0.4392305181056846</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5314345038238424</v>
+        <v>-0.5448799281466966</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3617696698246526</v>
+        <v>0.4073872968688471</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4807693607609243</v>
+        <v>-0.4526730990077342</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5894778609434884</v>
+        <v>0.6277074199782525</v>
       </c>
     </row>
     <row r="33">
@@ -1361,22 +1361,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.066441214763932</v>
+        <v>2.021983974029481</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.785468241925552</v>
+        <v>6.633369793394935</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6443633160449178</v>
+        <v>0.5633063230935753</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.251863106109253</v>
+        <v>2.405718185230361</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4492657288858671</v>
+        <v>0.5367496126409412</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.543448385316611</v>
+        <v>2.491521603942573</v>
       </c>
     </row>
     <row r="34">
@@ -1406,7 +1406,7 @@
         <v>-1.497729743135759</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.9642283280273667</v>
+        <v>0.964228328027368</v>
       </c>
     </row>
     <row r="35">
@@ -1418,19 +1418,19 @@
       </c>
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="n">
-        <v>0.2032076629645494</v>
+        <v>0.2069913780654065</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.660971874737777</v>
+        <v>-3.661403040640636</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.5717224341039501</v>
+        <v>-0.9359977610773028</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.795177253667918</v>
+        <v>-2.896651986659806</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.5615385661442843</v>
+        <v>-0.5540572313594151</v>
       </c>
     </row>
     <row r="36">
@@ -1442,19 +1442,19 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>2.143919057492667</v>
+        <v>2.474152906604521</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.3511502779590351</v>
+        <v>-0.2356054497746268</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.939226151013161</v>
+        <v>2.882769131326179</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.1993241624288778</v>
+        <v>-0.3018018524662227</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.429469189135743</v>
+        <v>2.305395557352454</v>
       </c>
     </row>
     <row r="37">
@@ -1480,7 +1480,7 @@
         <v>-0.4278017867139595</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2754159109284185</v>
+        <v>0.2754159109284189</v>
       </c>
     </row>
     <row r="38">
@@ -1493,16 +1493,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6716375493875939</v>
+        <v>-0.6648558581725024</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1071119597528075</v>
+        <v>-0.1855027258707586</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6432002130696931</v>
+        <v>-0.6699840829495162</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1403651965155528</v>
+        <v>-0.1318048070359782</v>
       </c>
     </row>
     <row r="39">
@@ -1515,16 +1515,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>-0.07882947467427119</v>
+        <v>-0.05481694885520503</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.878841513132086</v>
+        <v>0.8116986605320325</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.06616199051650971</v>
+        <v>-0.07294538827038816</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8971481150633657</v>
+        <v>0.8370184970841422</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
         <v>-0.9414415124481641</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.14767511802691</v>
+        <v>1.147675118026909</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-0.3732168290772032</v>
@@ -1565,22 +1565,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.586335531797885</v>
+        <v>-1.561401636394916</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.4246401487129699</v>
+        <v>0.4465691844693362</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.091146342749198</v>
+        <v>-1.154321578450691</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.8871270910923542</v>
+        <v>1.01598879021899</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.151103364314695</v>
+        <v>-1.11779227768384</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.9189692902541156</v>
+        <v>0.9612200812632553</v>
       </c>
     </row>
     <row r="42">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.355765676758402</v>
+        <v>-0.3479084102003316</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.922156080468504</v>
+        <v>1.906331931360364</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.4266712053200793</v>
+        <v>0.3269141471864804</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.507522869568751</v>
+        <v>2.55189971811792</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.138427397839308</v>
+        <v>-0.153180965220578</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.969815171903467</v>
+        <v>1.995181405998172</v>
       </c>
     </row>
     <row r="43">
@@ -1620,19 +1620,19 @@
         <v>-0.4738816440721542</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.5776908757475687</v>
+        <v>0.5776908757475684</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.1407486659378361</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.6592919124982476</v>
+        <v>0.6592919124982478</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.2796801333389122</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6276433667819759</v>
+        <v>0.6276433667819762</v>
       </c>
     </row>
     <row r="44">
@@ -1643,22 +1643,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6586941752549288</v>
+        <v>-0.6495310510828995</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1702707515495735</v>
+        <v>0.1800734395571</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3599540544662456</v>
+        <v>-0.3876184162347288</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2765196407131815</v>
+        <v>0.3202070099549242</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4443423054186761</v>
+        <v>-0.4374555303049719</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3391959076727777</v>
+        <v>0.3532032846052007</v>
       </c>
     </row>
     <row r="45">
@@ -1669,22 +1669,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1995387314868762</v>
+        <v>-0.2023828811324914</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.200544042098124</v>
+        <v>1.155417719896386</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1900848730869794</v>
+        <v>0.1495326919402803</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.137500495357314</v>
+        <v>1.128259908395594</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.06487535504769466</v>
+        <v>-0.07366424902566181</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9519315034646464</v>
+        <v>0.9483624562358418</v>
       </c>
     </row>
     <row r="46">
